--- a/工作流/PrlZB_BaoXiao_报销申请流程设计.xlsx
+++ b/工作流/PrlZB_BaoXiao_报销申请流程设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="33720" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="238">
   <si>
     <t>标题信息</t>
   </si>
@@ -1215,6 +1215,50 @@
   </si>
   <si>
     <t>constraint PK_WF_PrlZB_BaoXiao_Attach primary key(EntGid, FlowGid, Attach_Gid)</t>
+  </si>
+  <si>
+    <t>FeeDate</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用发生日期</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目设置</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gid</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop table PrlZB_BaoXiao_Type;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table PrlZB_BaoXiao_Type (</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>constraint PK_PrlZB_BaoXiao_Type primary key(EntGid, Gid)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeeEDate</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3281,10 +3325,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A34" sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3894,7 +3938,7 @@
       </c>
       <c r="F48" s="35"/>
     </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B49" s="31" t="s">
         <v>169</v>
       </c>
@@ -3909,7 +3953,7 @@
       </c>
       <c r="F49" s="36"/>
     </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B50" s="39" t="s">
         <v>82</v>
       </c>
@@ -3917,7 +3961,7 @@
       <c r="E50" s="31"/>
       <c r="F50" s="36"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B51" s="31" t="s">
         <v>171</v>
       </c>
@@ -3932,7 +3976,7 @@
       </c>
       <c r="F51" s="36"/>
     </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B52" s="31" t="s">
         <v>173</v>
       </c>
@@ -3947,7 +3991,7 @@
       </c>
       <c r="F52" s="36"/>
     </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B53" s="31" t="s">
         <v>175</v>
       </c>
@@ -3960,7 +4004,7 @@
       <c r="E53" s="35"/>
       <c r="F53" s="36"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B54" s="31" t="s">
         <v>177</v>
       </c>
@@ -3973,7 +4017,7 @@
       <c r="E54" s="35"/>
       <c r="F54" s="36"/>
     </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B55" s="31" t="s">
         <v>179</v>
       </c>
@@ -3988,7 +4032,7 @@
       </c>
       <c r="F55" s="36"/>
     </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B56" s="31" t="s">
         <v>181</v>
       </c>
@@ -4001,7 +4045,7 @@
       <c r="E56" s="35"/>
       <c r="F56" s="36"/>
     </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B57" s="31" t="s">
         <v>183</v>
       </c>
@@ -4014,120 +4058,122 @@
       <c r="E57" s="35"/>
       <c r="F57" s="36"/>
     </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B58" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F58" s="36"/>
+    </row>
+    <row r="59" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B59" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F59" s="36"/>
+    </row>
+    <row r="60" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B60" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C60" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="35" t="s">
+      <c r="D60" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="F58" s="36"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B59" s="31" t="s">
+      <c r="F60" s="36"/>
+    </row>
+    <row r="61" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B61" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C61" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="35" t="s">
+      <c r="D61" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="F59" s="36"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B60" s="31" t="s">
+      <c r="F61" s="36"/>
+    </row>
+    <row r="62" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B62" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C62" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="35" t="s">
+      <c r="D62" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="F60" s="36"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B61" s="31" t="s">
+      <c r="F62" s="36"/>
+    </row>
+    <row r="63" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B63" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="36"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B62" s="31" t="s">
+      <c r="D63" s="36"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="36"/>
+    </row>
+    <row r="64" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B64" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="36"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="36"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="34" t="s">
+      <c r="D64" s="36"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="36"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="40" t="s">
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F64" s="34"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="34" t="s">
+      <c r="F66" s="34"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="34"/>
-    </row>
-    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B66" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F66" s="36"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="34"/>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B68" s="31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C68" s="31" t="s">
         <v>71</v>
@@ -4136,13 +4182,13 @@
         <v>72</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F68" s="36"/>
     </row>
-    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B69" s="31" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>71</v>
@@ -4151,60 +4197,62 @@
         <v>72</v>
       </c>
       <c r="E69" s="35"/>
-      <c r="F69" s="36"/>
+      <c r="F69" s="35"/>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B70" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="31"/>
+      <c r="B70" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>130</v>
+      </c>
       <c r="F70" s="36"/>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B71" s="31" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="C71" s="31" t="s">
         <v>71</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E71" s="35" t="s">
-        <v>99</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E71" s="35"/>
       <c r="F71" s="36"/>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B72" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" s="31" t="s">
-        <v>76</v>
-      </c>
+      <c r="B72" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="38"/>
       <c r="E72" s="31"/>
       <c r="F72" s="36"/>
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B73" s="31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D73" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="31"/>
+      <c r="E73" s="35" t="s">
+        <v>99</v>
+      </c>
       <c r="F73" s="36"/>
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B74" s="31" t="s">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="C74" s="31" t="s">
         <v>89</v>
@@ -4217,159 +4265,157 @@
     </row>
     <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B75" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="31"/>
+      <c r="F75" s="36"/>
+    </row>
+    <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B76" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="F76" s="36"/>
+    </row>
+    <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B77" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C77" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D75" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E75" s="35" t="s">
+      <c r="D77" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="37"/>
-    </row>
-    <row r="76" spans="1:7" ht="144" x14ac:dyDescent="0.15">
-      <c r="B76" s="31" t="s">
+      <c r="F77" s="36"/>
+      <c r="G77" s="37"/>
+    </row>
+    <row r="78" spans="1:7" ht="144" x14ac:dyDescent="0.15">
+      <c r="B78" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C78" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D76" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E76" s="35" t="s">
+      <c r="D78" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E78" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F76" s="46" t="s">
+      <c r="F78" s="46" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B77" s="39" t="s">
+    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B79" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D77" s="38"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="36"/>
-    </row>
-    <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B78" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="F78" s="36"/>
-    </row>
-    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B79" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E79" s="35" t="s">
-        <v>105</v>
-      </c>
+      <c r="D79" s="38"/>
+      <c r="E79" s="31"/>
       <c r="F79" s="36"/>
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B80" s="31" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D80" s="31" t="s">
         <v>76</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F80" s="36"/>
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B81" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="D81" s="38"/>
-      <c r="E81" s="31"/>
+        <v>194</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>105</v>
+      </c>
       <c r="F81" s="36"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B82" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="36"/>
+    </row>
+    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B83" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="D83" s="38"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="36"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B84" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D82" s="38"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="36"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="34" t="s">
+      <c r="D84" s="38"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="36"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="40" t="s">
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="F85" s="34"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="34" t="s">
+      <c r="F87" s="34"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="34"/>
-    </row>
-    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B87" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E87" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F87" s="36"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B88" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="34"/>
     </row>
     <row r="89" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B89" s="31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C89" s="31" t="s">
         <v>71</v>
@@ -4378,13 +4424,13 @@
         <v>72</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F89" s="36"/>
     </row>
-    <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B90" s="31" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C90" s="31" t="s">
         <v>71</v>
@@ -4392,82 +4438,192 @@
       <c r="D90" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E90" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="F90" s="36"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
     </row>
     <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B91" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" s="38"/>
-      <c r="E91" s="31"/>
+        <v>74</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="35" t="s">
+        <v>130</v>
+      </c>
       <c r="F91" s="36"/>
     </row>
     <row r="92" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B92" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="F92" s="36"/>
     </row>
     <row r="93" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B93" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D93" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E93" s="35" t="s">
-        <v>114</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D93" s="38"/>
+      <c r="E93" s="31"/>
       <c r="F93" s="36"/>
     </row>
     <row r="94" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B94" s="31" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D94" s="31" t="s">
         <v>76</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F94" s="36"/>
     </row>
     <row r="95" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B95" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="D95" s="38"/>
-      <c r="E95" s="31"/>
+        <v>112</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E95" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="F95" s="36"/>
     </row>
     <row r="96" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B96" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E96" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F96" s="36"/>
+    </row>
+    <row r="97" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B97" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D97" s="38"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="36"/>
+    </row>
+    <row r="98" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B98" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="38"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="36"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="36"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="F100" s="34"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="34"/>
+    </row>
+    <row r="102" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B102" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E102" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F102" s="36"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B103" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+    </row>
+    <row r="104" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B104" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E104" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="F104" s="36"/>
+    </row>
+    <row r="105" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B105" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D105" s="38"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="36"/>
+    </row>
+    <row r="106" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B106" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D106" s="38"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/工作流/PrlZB_BaoXiao_报销申请流程设计.xlsx
+++ b/工作流/PrlZB_BaoXiao_报销申请流程设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="34896" yWindow="0" windowWidth="18156" windowHeight="12396" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="239">
   <si>
     <t>标题信息</t>
   </si>
@@ -1258,6 +1258,10 @@
   </si>
   <si>
     <t>FeeEDate</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attach_Type</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -2221,7 +2225,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>108</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -2600,23 +2604,23 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="13.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="16" customWidth="1"/>
     <col min="3" max="3" width="53" style="10" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="16" customWidth="1"/>
     <col min="5" max="5" width="9" style="16"/>
-    <col min="6" max="6" width="12.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="17" customWidth="1"/>
     <col min="7" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
@@ -2624,7 +2628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
@@ -2632,7 +2636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -2648,7 +2652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>9</v>
       </c>
@@ -2656,7 +2660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>11</v>
       </c>
@@ -2665,7 +2669,7 @@
       <c r="E10" s="21"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>12</v>
       </c>
@@ -2682,7 +2686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="24">
         <v>0.1</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="24">
         <v>0.2</v>
       </c>
@@ -2706,7 +2710,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="24">
         <v>0.3</v>
       </c>
@@ -2715,7 +2719,7 @@
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="24">
         <v>0.4</v>
       </c>
@@ -2724,13 +2728,13 @@
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="21"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
         <v>20</v>
       </c>
@@ -2738,30 +2742,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="24">
         <v>1</v>
       </c>
       <c r="C19" s="27"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="24">
         <v>2</v>
       </c>
       <c r="C20" s="27"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="24">
         <v>3</v>
       </c>
       <c r="C21" s="27"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
         <v>20</v>
       </c>
@@ -2769,7 +2773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="24">
         <v>1</v>
       </c>
@@ -2777,7 +2781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="24">
         <v>2</v>
       </c>
@@ -2785,7 +2789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="24">
         <v>3</v>
       </c>
@@ -2793,7 +2797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="24">
         <v>4</v>
       </c>
@@ -2801,7 +2805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="24">
         <v>5</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="24">
         <v>6</v>
       </c>
@@ -2817,7 +2821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="24">
         <v>7</v>
       </c>
@@ -2851,22 +2855,22 @@
       <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
@@ -2877,35 +2881,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="13">
         <v>1</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>2</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>3</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>4</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>5</v>
       </c>
@@ -2928,16 +2932,16 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -2945,7 +2949,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
@@ -2959,7 +2963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -2985,7 +2989,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>59</v>
       </c>
@@ -2999,7 +3003,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>60</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>198</v>
       </c>
@@ -3027,7 +3031,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>199</v>
       </c>
@@ -3041,7 +3045,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>61</v>
       </c>
@@ -3055,7 +3059,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>62</v>
       </c>
@@ -3067,7 +3071,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>52</v>
       </c>
@@ -3079,7 +3083,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>52</v>
       </c>
@@ -3091,7 +3095,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>53</v>
       </c>
@@ -3103,7 +3107,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>63</v>
       </c>
@@ -3115,7 +3119,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
@@ -3127,7 +3131,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>68</v>
       </c>
@@ -3139,7 +3143,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>69</v>
       </c>
@@ -3151,7 +3155,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -3163,7 +3167,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
@@ -3177,7 +3181,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>58</v>
       </c>
@@ -3189,7 +3193,7 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
@@ -3201,7 +3205,7 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>50</v>
       </c>
@@ -3231,7 +3235,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>108</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
@@ -3255,64 +3259,64 @@
       <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>211</v>
       </c>
@@ -3325,24 +3329,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="31" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="31" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>126</v>
       </c>
@@ -3350,7 +3354,7 @@
       <c r="E1" s="31"/>
       <c r="F1" s="36"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>213</v>
       </c>
@@ -3362,7 +3366,7 @@
       </c>
       <c r="F2" s="34"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>214</v>
       </c>
@@ -3372,7 +3376,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
         <v>70</v>
       </c>
@@ -3387,7 +3391,7 @@
       </c>
       <c r="F4" s="35"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
         <v>73</v>
       </c>
@@ -3402,7 +3406,7 @@
       </c>
       <c r="F5" s="35"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
         <v>74</v>
       </c>
@@ -3417,7 +3421,7 @@
       </c>
       <c r="F6" s="35"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>75</v>
       </c>
@@ -3432,7 +3436,7 @@
       </c>
       <c r="F7" s="35"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>78</v>
       </c>
@@ -3445,7 +3449,7 @@
       <c r="E8" s="36"/>
       <c r="F8" s="35"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>81</v>
       </c>
@@ -3458,7 +3462,7 @@
       <c r="E9" s="36"/>
       <c r="F9" s="35"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
         <v>82</v>
       </c>
@@ -3466,7 +3470,7 @@
       <c r="E10" s="36"/>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
         <v>83</v>
       </c>
@@ -3481,7 +3485,7 @@
       </c>
       <c r="F11" s="42"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>82</v>
       </c>
@@ -3489,7 +3493,7 @@
       <c r="E12" s="31"/>
       <c r="F12" s="36"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
         <v>86</v>
       </c>
@@ -3504,7 +3508,7 @@
       </c>
       <c r="F13" s="36"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
         <v>88</v>
       </c>
@@ -3517,7 +3521,7 @@
       <c r="E14" s="31"/>
       <c r="F14" s="36"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>90</v>
       </c>
@@ -3530,7 +3534,7 @@
       <c r="E15" s="31"/>
       <c r="F15" s="36"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="31" t="s">
         <v>131</v>
       </c>
@@ -3545,7 +3549,7 @@
       </c>
       <c r="F16" s="36"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
         <v>133</v>
       </c>
@@ -3558,7 +3562,7 @@
       <c r="E17" s="31"/>
       <c r="F17" s="36"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>134</v>
       </c>
@@ -3571,7 +3575,7 @@
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="39" t="s">
         <v>82</v>
       </c>
@@ -3579,7 +3583,7 @@
       <c r="E19" s="31"/>
       <c r="F19" s="36"/>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
         <v>93</v>
       </c>
@@ -3594,7 +3598,7 @@
       </c>
       <c r="F20" s="36"/>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="39" t="s">
         <v>82</v>
       </c>
@@ -3603,7 +3607,7 @@
       <c r="E21" s="31"/>
       <c r="F21" s="36"/>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>135</v>
       </c>
@@ -3618,7 +3622,7 @@
       </c>
       <c r="F22" s="36"/>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="31" t="s">
         <v>137</v>
       </c>
@@ -3631,7 +3635,7 @@
       <c r="E23" s="31"/>
       <c r="F23" s="36"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>138</v>
       </c>
@@ -3644,7 +3648,7 @@
       <c r="E24" s="31"/>
       <c r="F24" s="36"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
         <v>139</v>
       </c>
@@ -3659,7 +3663,7 @@
       </c>
       <c r="F25" s="36"/>
     </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="39" t="s">
         <v>82</v>
@@ -3669,7 +3673,7 @@
       <c r="E26" s="31"/>
       <c r="F26" s="36"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
         <v>142</v>
       </c>
@@ -3684,7 +3688,7 @@
       </c>
       <c r="F27" s="36"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>144</v>
       </c>
@@ -3697,7 +3701,7 @@
       <c r="E28" s="35"/>
       <c r="F28" s="36"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
         <v>146</v>
       </c>
@@ -3712,7 +3716,7 @@
       </c>
       <c r="F29" s="36"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B30" s="31" t="s">
         <v>149</v>
       </c>
@@ -3725,7 +3729,7 @@
       <c r="E30" s="35"/>
       <c r="F30" s="36"/>
     </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
         <v>151</v>
       </c>
@@ -3738,7 +3742,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="36"/>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B32" s="31" t="s">
         <v>152</v>
       </c>
@@ -3753,7 +3757,7 @@
       </c>
       <c r="F32" s="36"/>
     </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="39" t="s">
         <v>82</v>
       </c>
@@ -3762,7 +3766,7 @@
       <c r="E33" s="31"/>
       <c r="F33" s="36"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="31" t="s">
         <v>155</v>
       </c>
@@ -3777,7 +3781,7 @@
       </c>
       <c r="F34" s="36"/>
     </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="31" t="s">
         <v>157</v>
       </c>
@@ -3792,7 +3796,7 @@
       </c>
       <c r="F35" s="36"/>
     </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B36" s="31" t="s">
         <v>160</v>
       </c>
@@ -3807,7 +3811,7 @@
       </c>
       <c r="F36" s="36"/>
     </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="39" t="s">
         <v>163</v>
       </c>
@@ -3822,7 +3826,7 @@
       </c>
       <c r="F37" s="36"/>
     </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B38" s="31" t="s">
         <v>165</v>
       </c>
@@ -3837,7 +3841,7 @@
       </c>
       <c r="F38" s="36"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B39" s="31" t="s">
         <v>215</v>
       </c>
@@ -3845,7 +3849,7 @@
       <c r="E39" s="31"/>
       <c r="F39" s="36"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="33"/>
       <c r="B40" s="43" t="s">
         <v>216</v>
@@ -3855,7 +3859,7 @@
       <c r="E40" s="45"/>
       <c r="F40" s="33"/>
     </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B41" s="31" t="s">
         <v>95</v>
       </c>
@@ -3863,7 +3867,7 @@
       <c r="E41" s="31"/>
       <c r="F41" s="36"/>
     </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>217</v>
       </c>
@@ -3871,7 +3875,7 @@
       <c r="E42" s="31"/>
       <c r="F42" s="36"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
         <v>218</v>
       </c>
@@ -3883,7 +3887,7 @@
       </c>
       <c r="F44" s="34"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
         <v>219</v>
       </c>
@@ -3893,7 +3897,7 @@
       <c r="E45" s="41"/>
       <c r="F45" s="34"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="31" t="s">
         <v>70</v>
       </c>
@@ -3908,7 +3912,7 @@
       </c>
       <c r="F46" s="35"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="31" t="s">
         <v>73</v>
       </c>
@@ -3923,7 +3927,7 @@
       </c>
       <c r="F47" s="35"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="31" t="s">
         <v>74</v>
       </c>
@@ -3938,7 +3942,7 @@
       </c>
       <c r="F48" s="35"/>
     </row>
-    <row r="49" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B49" s="31" t="s">
         <v>169</v>
       </c>
@@ -3953,7 +3957,7 @@
       </c>
       <c r="F49" s="36"/>
     </row>
-    <row r="50" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B50" s="39" t="s">
         <v>82</v>
       </c>
@@ -3961,7 +3965,7 @@
       <c r="E50" s="31"/>
       <c r="F50" s="36"/>
     </row>
-    <row r="51" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B51" s="31" t="s">
         <v>171</v>
       </c>
@@ -3976,7 +3980,7 @@
       </c>
       <c r="F51" s="36"/>
     </row>
-    <row r="52" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B52" s="31" t="s">
         <v>173</v>
       </c>
@@ -3991,7 +3995,7 @@
       </c>
       <c r="F52" s="36"/>
     </row>
-    <row r="53" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B53" s="31" t="s">
         <v>175</v>
       </c>
@@ -4004,7 +4008,7 @@
       <c r="E53" s="35"/>
       <c r="F53" s="36"/>
     </row>
-    <row r="54" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B54" s="31" t="s">
         <v>177</v>
       </c>
@@ -4017,7 +4021,7 @@
       <c r="E54" s="35"/>
       <c r="F54" s="36"/>
     </row>
-    <row r="55" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
         <v>179</v>
       </c>
@@ -4032,7 +4036,7 @@
       </c>
       <c r="F55" s="36"/>
     </row>
-    <row r="56" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B56" s="31" t="s">
         <v>181</v>
       </c>
@@ -4045,7 +4049,7 @@
       <c r="E56" s="35"/>
       <c r="F56" s="36"/>
     </row>
-    <row r="57" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B57" s="31" t="s">
         <v>183</v>
       </c>
@@ -4058,7 +4062,7 @@
       <c r="E57" s="35"/>
       <c r="F57" s="36"/>
     </row>
-    <row r="58" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
         <v>227</v>
       </c>
@@ -4073,7 +4077,7 @@
       </c>
       <c r="F58" s="36"/>
     </row>
-    <row r="59" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B59" s="31" t="s">
         <v>237</v>
       </c>
@@ -4088,7 +4092,7 @@
       </c>
       <c r="F59" s="36"/>
     </row>
-    <row r="60" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B60" s="31" t="s">
         <v>184</v>
       </c>
@@ -4103,7 +4107,7 @@
       </c>
       <c r="F60" s="36"/>
     </row>
-    <row r="61" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B61" s="31" t="s">
         <v>186</v>
       </c>
@@ -4118,7 +4122,7 @@
       </c>
       <c r="F61" s="36"/>
     </row>
-    <row r="62" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B62" s="31" t="s">
         <v>188</v>
       </c>
@@ -4133,7 +4137,7 @@
       </c>
       <c r="F62" s="36"/>
     </row>
-    <row r="63" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B63" s="31" t="s">
         <v>220</v>
       </c>
@@ -4141,7 +4145,7 @@
       <c r="E63" s="35"/>
       <c r="F63" s="36"/>
     </row>
-    <row r="64" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B64" s="31" t="s">
         <v>95</v>
       </c>
@@ -4149,7 +4153,7 @@
       <c r="E64" s="35"/>
       <c r="F64" s="36"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
         <v>221</v>
       </c>
@@ -4161,7 +4165,7 @@
       </c>
       <c r="F66" s="34"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
         <v>222</v>
       </c>
@@ -4171,7 +4175,7 @@
       <c r="E67" s="41"/>
       <c r="F67" s="34"/>
     </row>
-    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B68" s="31" t="s">
         <v>70</v>
       </c>
@@ -4186,7 +4190,7 @@
       </c>
       <c r="F68" s="36"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B69" s="31" t="s">
         <v>73</v>
       </c>
@@ -4199,7 +4203,7 @@
       <c r="E69" s="35"/>
       <c r="F69" s="35"/>
     </row>
-    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B70" s="31" t="s">
         <v>74</v>
       </c>
@@ -4214,7 +4218,7 @@
       </c>
       <c r="F70" s="36"/>
     </row>
-    <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B71" s="31" t="s">
         <v>169</v>
       </c>
@@ -4227,7 +4231,7 @@
       <c r="E71" s="35"/>
       <c r="F71" s="36"/>
     </row>
-    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B72" s="39" t="s">
         <v>82</v>
       </c>
@@ -4235,7 +4239,7 @@
       <c r="E72" s="31"/>
       <c r="F72" s="36"/>
     </row>
-    <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B73" s="31" t="s">
         <v>98</v>
       </c>
@@ -4250,7 +4254,7 @@
       </c>
       <c r="F73" s="36"/>
     </row>
-    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B74" s="31" t="s">
         <v>100</v>
       </c>
@@ -4263,7 +4267,7 @@
       <c r="E74" s="31"/>
       <c r="F74" s="36"/>
     </row>
-    <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B75" s="31" t="s">
         <v>101</v>
       </c>
@@ -4276,7 +4280,7 @@
       <c r="E75" s="31"/>
       <c r="F75" s="36"/>
     </row>
-    <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B76" s="31" t="s">
         <v>212</v>
       </c>
@@ -4289,7 +4293,7 @@
       <c r="E76" s="31"/>
       <c r="F76" s="36"/>
     </row>
-    <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B77" s="31" t="s">
         <v>189</v>
       </c>
@@ -4305,7 +4309,7 @@
       <c r="F77" s="36"/>
       <c r="G77" s="37"/>
     </row>
-    <row r="78" spans="1:7" ht="144" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="144" x14ac:dyDescent="0.25">
       <c r="B78" s="31" t="s">
         <v>192</v>
       </c>
@@ -4322,7 +4326,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B79" s="39" t="s">
         <v>82</v>
       </c>
@@ -4330,7 +4334,7 @@
       <c r="E79" s="31"/>
       <c r="F79" s="36"/>
     </row>
-    <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B80" s="31" t="s">
         <v>102</v>
       </c>
@@ -4345,7 +4349,7 @@
       </c>
       <c r="F80" s="36"/>
     </row>
-    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
         <v>194</v>
       </c>
@@ -4360,7 +4364,7 @@
       </c>
       <c r="F81" s="36"/>
     </row>
-    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B82" s="31" t="s">
         <v>106</v>
       </c>
@@ -4375,7 +4379,7 @@
       </c>
       <c r="F82" s="36"/>
     </row>
-    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B83" s="31" t="s">
         <v>223</v>
       </c>
@@ -4383,7 +4387,7 @@
       <c r="E83" s="31"/>
       <c r="F83" s="36"/>
     </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B84" s="31" t="s">
         <v>95</v>
       </c>
@@ -4391,7 +4395,7 @@
       <c r="E84" s="31"/>
       <c r="F84" s="36"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="34" t="s">
         <v>224</v>
       </c>
@@ -4403,7 +4407,7 @@
       </c>
       <c r="F87" s="34"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="34" t="s">
         <v>225</v>
       </c>
@@ -4413,7 +4417,7 @@
       <c r="E88" s="41"/>
       <c r="F88" s="34"/>
     </row>
-    <row r="89" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B89" s="31" t="s">
         <v>70</v>
       </c>
@@ -4428,7 +4432,7 @@
       </c>
       <c r="F89" s="36"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" s="31" t="s">
         <v>73</v>
       </c>
@@ -4441,7 +4445,7 @@
       <c r="E90" s="35"/>
       <c r="F90" s="35"/>
     </row>
-    <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B91" s="31" t="s">
         <v>74</v>
       </c>
@@ -4456,7 +4460,7 @@
       </c>
       <c r="F91" s="36"/>
     </row>
-    <row r="92" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B92" s="31" t="s">
         <v>109</v>
       </c>
@@ -4471,7 +4475,7 @@
       </c>
       <c r="F92" s="36"/>
     </row>
-    <row r="93" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B93" s="31" t="s">
         <v>82</v>
       </c>
@@ -4479,107 +4483,105 @@
       <c r="E93" s="31"/>
       <c r="F93" s="36"/>
     </row>
-    <row r="94" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B94" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E94" s="31"/>
+      <c r="F94" s="36"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B95" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C94" s="31" t="s">
+      <c r="C95" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D94" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E94" s="35" t="s">
+      <c r="D95" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E95" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F94" s="36"/>
-    </row>
-    <row r="95" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B95" s="31" t="s">
+      <c r="F95" s="36"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B96" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C95" s="31" t="s">
+      <c r="C96" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D95" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E95" s="35" t="s">
+      <c r="D96" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E96" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F95" s="36"/>
-    </row>
-    <row r="96" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B96" s="31" t="s">
+      <c r="F96" s="36"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B97" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C96" s="31" t="s">
+      <c r="C97" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D96" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E96" s="35" t="s">
+      <c r="D97" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E97" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F96" s="36"/>
-    </row>
-    <row r="97" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B97" s="31" t="s">
+      <c r="F97" s="36"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B98" s="31" t="s">
         <v>226</v>
-      </c>
-      <c r="D97" s="38"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="36"/>
-    </row>
-    <row r="98" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B98" s="31" t="s">
-        <v>95</v>
       </c>
       <c r="D98" s="38"/>
       <c r="E98" s="31"/>
       <c r="F98" s="36"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" s="34" t="s">
+    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B99" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="38"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="36"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="34" t="s">
         <v>234</v>
-      </c>
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="F100" s="34"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="34" t="s">
-        <v>235</v>
       </c>
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
       <c r="D101" s="34"/>
-      <c r="E101" s="41"/>
+      <c r="E101" s="40" t="s">
+        <v>230</v>
+      </c>
       <c r="F101" s="34"/>
     </row>
-    <row r="102" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B102" s="31" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="34"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B103" s="31" t="s">
         <v>70</v>
-      </c>
-      <c r="C102" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D102" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E102" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F102" s="36"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B103" s="31" t="s">
-        <v>231</v>
       </c>
       <c r="C103" s="31" t="s">
         <v>71</v>
@@ -4587,43 +4589,58 @@
       <c r="D103" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-    </row>
-    <row r="104" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E103" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F103" s="36"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B104" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B105" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="C104" s="31" t="s">
+      <c r="C105" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D104" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E104" s="35" t="s">
+      <c r="D105" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E105" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="F104" s="36"/>
-    </row>
-    <row r="105" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B105" s="31" t="s">
+      <c r="F105" s="36"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B106" s="31" t="s">
         <v>236</v>
-      </c>
-      <c r="D105" s="38"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="36"/>
-    </row>
-    <row r="106" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B106" s="31" t="s">
-        <v>95</v>
       </c>
       <c r="D106" s="38"/>
       <c r="E106" s="31"/>
       <c r="F106" s="36"/>
     </row>
+    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B107" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D107" s="38"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="36"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>